--- a/test/Examples.xlsx
+++ b/test/Examples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\S\TELOS\Python\aggregate\yaml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\S\TELOS\Python\aggregate_project\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C56679-EE8D-4009-ADB9-BAAB11225968}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D555FC-ED29-4A8D-ABF2-81B64BD12890}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="0" windowWidth="23310" windowHeight="12728" activeTab="1" xr2:uid="{E2FD0486-3061-4299-BF40-A2F9715AEEF5}"/>
+    <workbookView xWindow="1980" yWindow="0" windowWidth="17873" windowHeight="8955" xr2:uid="{E2FD0486-3061-4299-BF40-A2F9715AEEF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Generic" sheetId="1" r:id="rId1"/>
@@ -52,12 +52,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -135,9 +140,6 @@
   </si>
   <si>
     <t>lognorm</t>
-  </si>
-  <si>
-    <t>poisson</t>
   </si>
   <si>
     <t>profile</t>
@@ -576,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762F8CA1-2347-4033-AA92-F0279020C403}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -664,7 +666,7 @@
         <v>0.7</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S2">
         <v>0.17499999999999999</v>
@@ -690,7 +692,7 @@
         <v>0.8</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S3">
         <v>0.17499999999999999</v>
@@ -713,7 +715,7 @@
         <v>0.9</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S4">
         <v>0.17499999999999999</v>
@@ -739,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S5">
         <v>0.17499999999999999</v>
@@ -765,7 +767,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="R6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S6">
         <v>0.17499999999999999</v>
@@ -773,7 +775,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -794,7 +796,7 @@
         <v>1.2</v>
       </c>
       <c r="R7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S7">
         <v>0.17499999999999999</v>
@@ -802,7 +804,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>1200</v>
@@ -823,7 +825,7 @@
         <v>0.1</v>
       </c>
       <c r="R8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S8">
         <v>0.65</v>
@@ -831,7 +833,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>1200</v>
@@ -852,7 +854,7 @@
         <v>0.1</v>
       </c>
       <c r="R9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S9">
         <v>0.65</v>
@@ -860,7 +862,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>1200</v>
@@ -881,7 +883,7 @@
         <v>0.1</v>
       </c>
       <c r="R10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S10">
         <v>0.65</v>
@@ -889,7 +891,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>1200</v>
@@ -910,7 +912,7 @@
         <v>0.1</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S11">
         <v>0.65</v>
@@ -918,7 +920,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>1200</v>
@@ -939,7 +941,7 @@
         <v>0.1</v>
       </c>
       <c r="R12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S12">
         <v>0.65</v>
@@ -947,7 +949,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>1200</v>
@@ -968,7 +970,7 @@
         <v>0.1</v>
       </c>
       <c r="R13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S13">
         <v>0.65</v>
@@ -976,7 +978,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>1200</v>
@@ -997,7 +999,7 @@
         <v>0.1</v>
       </c>
       <c r="R14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S14">
         <v>0.65</v>
@@ -1005,7 +1007,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>1200</v>
@@ -1026,7 +1028,7 @@
         <v>0.1</v>
       </c>
       <c r="R15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S15">
         <v>0.65</v>
@@ -1034,7 +1036,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>1200</v>
@@ -1055,7 +1057,7 @@
         <v>0.1</v>
       </c>
       <c r="R16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S16">
         <v>0.65</v>
@@ -1063,7 +1065,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>1200</v>
@@ -1084,7 +1086,7 @@
         <v>0.1</v>
       </c>
       <c r="R17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S17">
         <v>0.65</v>
@@ -1099,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A27BAC7-E350-423B-80F7-D8BE041BCFB1}">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1195,7 +1197,7 @@
         <v>0.7</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S2">
         <v>0.17499999999999999</v>
@@ -1227,7 +1229,7 @@
         <v>0.8</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S3">
         <v>0.17499999999999999</v>
@@ -1256,7 +1258,7 @@
         <v>0.9</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S4">
         <v>0.17499999999999999</v>
@@ -1285,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S5">
         <v>0.17499999999999999</v>
@@ -1311,7 +1313,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="R6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S6">
         <v>0.17499999999999999</v>
@@ -1319,7 +1321,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -1340,7 +1342,7 @@
         <v>1.2</v>
       </c>
       <c r="R7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S7">
         <v>0.17499999999999999</v>
@@ -1348,7 +1350,7 @@
     </row>
     <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1">
         <v>1200</v>
@@ -1360,7 +1362,7 @@
         <v>250</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8" s="1">
         <v>750</v>
@@ -1372,7 +1374,7 @@
         <v>0.1</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S8" s="1">
         <v>0.65</v>
@@ -1380,7 +1382,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>1200</v>
@@ -1392,7 +1394,7 @@
         <v>500</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9">
         <v>750</v>
@@ -1404,7 +1406,7 @@
         <v>0.1</v>
       </c>
       <c r="R9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S9">
         <v>0.65</v>
@@ -1412,7 +1414,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>1200</v>
@@ -1424,7 +1426,7 @@
         <v>750</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10">
         <v>750</v>
@@ -1436,7 +1438,7 @@
         <v>0.1</v>
       </c>
       <c r="R10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S10">
         <v>0.65</v>
@@ -1444,7 +1446,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>1200</v>
@@ -1456,7 +1458,7 @@
         <v>1000</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11">
         <v>750</v>
@@ -1468,7 +1470,7 @@
         <v>0.1</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S11">
         <v>0.65</v>
@@ -1476,7 +1478,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>1200</v>
@@ -1488,7 +1490,7 @@
         <v>1250</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K12">
         <v>750</v>
@@ -1500,7 +1502,7 @@
         <v>0.1</v>
       </c>
       <c r="R12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S12">
         <v>0.65</v>
@@ -1508,7 +1510,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>1200</v>
@@ -1520,7 +1522,7 @@
         <v>1500</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13">
         <v>750</v>
@@ -1532,7 +1534,7 @@
         <v>0.1</v>
       </c>
       <c r="R13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S13">
         <v>0.65</v>
@@ -1540,7 +1542,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>1200</v>
@@ -1552,7 +1554,7 @@
         <v>1750</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14">
         <v>750</v>
@@ -1564,7 +1566,7 @@
         <v>0.1</v>
       </c>
       <c r="R14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S14">
         <v>0.65</v>
@@ -1572,7 +1574,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>1200</v>
@@ -1584,7 +1586,7 @@
         <v>2000</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
         <v>750</v>
@@ -1596,7 +1598,7 @@
         <v>0.1</v>
       </c>
       <c r="R15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S15">
         <v>0.65</v>
@@ -1604,7 +1606,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>1200</v>
@@ -1616,7 +1618,7 @@
         <v>2250</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
         <v>750</v>
@@ -1628,7 +1630,7 @@
         <v>0.1</v>
       </c>
       <c r="R16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S16">
         <v>0.65</v>
@@ -1636,7 +1638,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>1200</v>
@@ -1648,7 +1650,7 @@
         <v>2500</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17">
         <v>750</v>
@@ -1660,7 +1662,7 @@
         <v>0.1</v>
       </c>
       <c r="R17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S17">
         <v>0.65</v>
@@ -1671,25 +1673,25 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>31</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>32</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>33</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>34</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>35</v>
-      </c>
-      <c r="H21" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
@@ -1820,7 +1822,7 @@
         <v>1000</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H24:H37" si="5">G25/F25</f>
+        <f t="shared" ref="H25:H37" si="5">G25/F25</f>
         <v>1.3504017577707788</v>
       </c>
     </row>
@@ -1859,7 +1861,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
@@ -1892,7 +1894,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
@@ -1933,7 +1935,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
@@ -1974,7 +1976,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
@@ -2015,7 +2017,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
@@ -2056,7 +2058,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
@@ -2097,7 +2099,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
@@ -2138,7 +2140,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
@@ -2179,7 +2181,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
@@ -2220,7 +2222,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
@@ -2261,7 +2263,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
